--- a/output/21-general-report.xlsx
+++ b/output/21-general-report.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2518,4 +2519,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>594</v>
+      </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>316</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/21-general-report.xlsx
+++ b/output/21-general-report.xlsx
@@ -2523,7 +2523,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2537,15 +2537,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>revised_general_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>report_id_superior_report_e_g_parent_1_inferior_report_e_g_child_2_observation_3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -2559,14 +2564,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C2">
-        <v>594</v>
-      </c>
       <c r="D2">
-        <v>71</v>
+        <v>227</v>
+      </c>
+      <c r="E2">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2577,14 +2587,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C3">
-        <v>123</v>
-      </c>
       <c r="D3">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2595,50 +2610,1054 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>5</v>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>316</v>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6">
-        <v>65</v>
-      </c>
-      <c r="D6">
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Adaptive motivation</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>83</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Maladaptive motivation</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Negative perceptions of others</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38">
         <v>12</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Negative social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Other beliefs (negative)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Other beliefs (positive)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Positive perceptions of others</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Positive social or emotional functioning</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
